--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H2">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>1.331450561261333</v>
+        <v>0.7661147397237779</v>
       </c>
       <c r="R2">
-        <v>11.983055051352</v>
+        <v>6.895032657514</v>
       </c>
       <c r="S2">
-        <v>0.01759954293474337</v>
+        <v>0.01082243693353649</v>
       </c>
       <c r="T2">
-        <v>0.01759954293474337</v>
+        <v>0.0108224369335365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H3">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +626,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.1724929518293333</v>
+        <v>0.1126804777964444</v>
       </c>
       <c r="R3">
-        <v>1.552436566464</v>
+        <v>1.014124300168</v>
       </c>
       <c r="S3">
-        <v>0.002280067469260778</v>
+        <v>0.001591768571157449</v>
       </c>
       <c r="T3">
-        <v>0.002280067469260778</v>
+        <v>0.00159176857115745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H4">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.1091541672213333</v>
+        <v>0.07944495204033333</v>
       </c>
       <c r="R4">
-        <v>0.9823875049920001</v>
+        <v>0.715004568363</v>
       </c>
       <c r="S4">
-        <v>0.001442834986451256</v>
+        <v>0.001122270514537202</v>
       </c>
       <c r="T4">
-        <v>0.001442834986451256</v>
+        <v>0.001122270514537203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>11.51839566666666</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H5">
-        <v>34.555187</v>
+        <v>0.497633</v>
       </c>
       <c r="I5">
-        <v>0.9672047296405205</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J5">
-        <v>0.9672047296405206</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>60.39575933025677</v>
+        <v>0.01851532044588889</v>
       </c>
       <c r="R5">
-        <v>543.561833972311</v>
+        <v>0.166637884013</v>
       </c>
       <c r="S5">
-        <v>0.7983306255114123</v>
+        <v>0.0002615546698685089</v>
       </c>
       <c r="T5">
-        <v>0.7983306255114122</v>
+        <v>0.000261554669868509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H6">
         <v>34.555187</v>
       </c>
       <c r="I6">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J6">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>7.824430818505776</v>
+        <v>53.19831702200512</v>
       </c>
       <c r="R6">
-        <v>70.41987736655199</v>
+        <v>478.7848531980461</v>
       </c>
       <c r="S6">
-        <v>0.1034258500741981</v>
+        <v>0.7515002663289215</v>
       </c>
       <c r="T6">
-        <v>0.1034258500741981</v>
+        <v>0.7515002663289216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,78 +850,78 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H7">
         <v>34.555187</v>
       </c>
       <c r="I7">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J7">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>4.951328276995111</v>
+        <v>7.824430818505778</v>
       </c>
       <c r="R7">
-        <v>44.561954492956</v>
+        <v>70.419877366552</v>
       </c>
       <c r="S7">
-        <v>0.06544825405491006</v>
+        <v>0.1105309749093579</v>
       </c>
       <c r="T7">
-        <v>0.06544825405491007</v>
+        <v>0.1105309749093579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1366293333333334</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H8">
-        <v>0.409888</v>
+        <v>34.555187</v>
       </c>
       <c r="I8">
-        <v>0.01147282496902401</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J8">
-        <v>0.01147282496902401</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,90 +930,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>0.716404660184889</v>
+        <v>5.516585865406334</v>
       </c>
       <c r="R8">
-        <v>6.447641941664</v>
+        <v>49.64927278865701</v>
       </c>
       <c r="S8">
-        <v>0.009469667851301799</v>
+        <v>0.07792945301943249</v>
       </c>
       <c r="T8">
-        <v>0.009469667851301796</v>
+        <v>0.07792945301943251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1366293333333334</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H9">
-        <v>0.409888</v>
+        <v>34.555187</v>
       </c>
       <c r="I9">
-        <v>0.01147282496902401</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J9">
-        <v>0.01147282496902401</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.09281212396088889</v>
+        <v>1.285687163778556</v>
       </c>
       <c r="R9">
-        <v>0.835309115648</v>
+        <v>11.571184474007</v>
       </c>
       <c r="S9">
-        <v>0.00122682058804118</v>
+        <v>0.01816212053467031</v>
       </c>
       <c r="T9">
-        <v>0.001226820588041179</v>
+        <v>0.01816212053467032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1030,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H10">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I10">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J10">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1054,462 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.05873184957155557</v>
+        <v>0.7363096798482223</v>
       </c>
       <c r="R10">
-        <v>0.5285866461440001</v>
+        <v>6.626787118634</v>
       </c>
       <c r="S10">
-        <v>0.0007763365296810284</v>
+        <v>0.01040139898180647</v>
       </c>
       <c r="T10">
-        <v>0.0007763365296810283</v>
+        <v>0.01040139898180647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1594243333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.478273</v>
+      </c>
+      <c r="I11">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="J11">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.037896</v>
+      </c>
+      <c r="O11">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P11">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q11">
+        <v>0.1082967370675555</v>
+      </c>
+      <c r="R11">
+        <v>0.974670633608</v>
+      </c>
+      <c r="S11">
+        <v>0.00152984213232078</v>
+      </c>
+      <c r="T11">
+        <v>0.001529842132320781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1594243333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.478273</v>
+      </c>
+      <c r="I12">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="J12">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.478937</v>
+      </c>
+      <c r="N12">
+        <v>1.436811</v>
+      </c>
+      <c r="O12">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P12">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q12">
+        <v>0.07635421193366666</v>
+      </c>
+      <c r="R12">
+        <v>0.6871879074030001</v>
+      </c>
+      <c r="S12">
+        <v>0.001078609509014176</v>
+      </c>
+      <c r="T12">
+        <v>0.001078609509014176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1594243333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.478273</v>
+      </c>
+      <c r="I13">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="J13">
+        <v>0.01326122972505393</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.01779499722811111</v>
+      </c>
+      <c r="R13">
+        <v>0.160154975053</v>
+      </c>
+      <c r="S13">
+        <v>0.0002513791019124964</v>
+      </c>
+      <c r="T13">
+        <v>0.0002513791019124965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.534416</v>
+      </c>
+      <c r="I14">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J14">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.855658</v>
+      </c>
+      <c r="O14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q14">
+        <v>0.8227428139697779</v>
+      </c>
+      <c r="R14">
+        <v>7.404685325728</v>
+      </c>
+      <c r="S14">
+        <v>0.01162238729399545</v>
+      </c>
+      <c r="T14">
+        <v>0.01162238729399545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.534416</v>
+      </c>
+      <c r="I15">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J15">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P15">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q15">
+        <v>0.1210093587484444</v>
+      </c>
+      <c r="R15">
+        <v>1.089084228736</v>
+      </c>
+      <c r="S15">
+        <v>0.001709425606267429</v>
+      </c>
+      <c r="T15">
+        <v>0.00170942560626743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.534416</v>
+      </c>
+      <c r="I16">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J16">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.478937</v>
+      </c>
+      <c r="N16">
+        <v>1.436811</v>
+      </c>
+      <c r="O16">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P16">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q16">
+        <v>0.08531719859733333</v>
+      </c>
+      <c r="R16">
+        <v>0.767854787376</v>
+      </c>
+      <c r="S16">
+        <v>0.001205224169813725</v>
+      </c>
+      <c r="T16">
+        <v>0.001205224169813726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1781386666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.534416</v>
+      </c>
+      <c r="I17">
+        <v>0.01481792479346402</v>
+      </c>
+      <c r="J17">
+        <v>0.01481792479346403</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>0.01988389735288889</v>
+      </c>
+      <c r="R17">
+        <v>0.178955076176</v>
+      </c>
+      <c r="S17">
+        <v>0.0002808877233874141</v>
+      </c>
+      <c r="T17">
+        <v>0.0002808877233874142</v>
       </c>
     </row>
   </sheetData>
